--- a/projects/dev/large_dataset.xlsx
+++ b/projects/dev/large_dataset.xlsx
@@ -974,11 +974,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>procedure_node_00031</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -994,11 +994,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>procedure_node_00003</t>
+          <t>procedure_node_00010</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -1014,11 +1014,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -1034,11 +1034,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>procedure_node_00014</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -1054,11 +1054,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00037</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1074,11 +1074,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>procedure_node_00035</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1094,11 +1094,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1134,11 +1134,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>procedure_node_00007</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1154,11 +1154,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>procedure_node_00008</t>
+          <t>procedure_node_00027</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1174,11 +1174,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00017</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00018</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1214,11 +1214,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>procedure_node_00001</t>
+          <t>procedure_node_00000</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>procedure_node_00031</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -1274,11 +1274,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>procedure_node_00005</t>
+          <t>procedure_node_00037</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1294,11 +1294,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00031</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1314,11 +1314,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00002</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1354,11 +1354,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>procedure_node_00024</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>procedure_node_00005</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
@@ -1394,11 +1394,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00038</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1414,11 +1414,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00037</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1434,11 +1434,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1454,11 +1454,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -1474,11 +1474,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00029</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -1494,11 +1494,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00024</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1514,11 +1514,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>procedure_node_00039</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1534,11 +1534,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>procedure_node_00013</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1554,11 +1554,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>procedure_node_00001</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -1574,11 +1574,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>procedure_node_00002</t>
+          <t>procedure_node_00023</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -1594,11 +1594,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1614,11 +1614,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>procedure_node_00023</t>
+          <t>procedure_node_00027</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00008</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>procedure_node_00019</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>procedure_node_00032</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -1694,11 +1694,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -1714,11 +1714,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>procedure_node_00014</t>
+          <t>procedure_node_00006</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00002</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1774,11 +1774,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00012</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>procedure_node_00002</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1834,11 +1834,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>procedure_node_00004</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
@@ -1934,11 +1934,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -1954,11 +1954,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>procedure_node_00000</t>
+          <t>procedure_node_00005</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>procedure_node_00032</t>
+          <t>procedure_node_00024</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1994,11 +1994,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>procedure_node_00039</t>
+          <t>procedure_node_00035</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
@@ -2014,11 +2014,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -2034,11 +2034,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>procedure_node_00025</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
@@ -2054,11 +2054,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>procedure_node_00020</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
@@ -2074,11 +2074,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00003</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
@@ -2094,11 +2094,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -2114,11 +2114,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>procedure_node_00005</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -2174,11 +2174,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>procedure_node_00020</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00032</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -2214,11 +2214,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>procedure_node_00004</t>
+          <t>procedure_node_00000</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
@@ -2234,11 +2234,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -2254,11 +2254,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>procedure_node_00034</t>
+          <t>procedure_node_00029</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -2274,11 +2274,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00038</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2314,11 +2314,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>procedure_node_00001</t>
+          <t>procedure_node_00027</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2354,11 +2354,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>procedure_node_00024</t>
+          <t>procedure_node_00017</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -2374,11 +2374,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>procedure_node_00008</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2414,11 +2414,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00009</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -2434,11 +2434,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>procedure_node_00001</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76">
@@ -2454,11 +2454,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00013</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
@@ -2474,11 +2474,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
@@ -2494,11 +2494,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>procedure_node_00039</t>
+          <t>procedure_node_00009</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>procedure_node_00005</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2534,11 +2534,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>procedure_node_00010</t>
+          <t>procedure_node_00038</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81">
@@ -2554,11 +2554,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>procedure_node_00031</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2594,11 +2594,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00039</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -2614,11 +2614,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00038</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -2634,11 +2634,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
@@ -2654,11 +2654,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
@@ -2674,11 +2674,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>procedure_node_00032</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>procedure_node_00019</t>
+          <t>procedure_node_00027</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>procedure_node_00031</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
@@ -2734,11 +2734,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>procedure_node_00004</t>
+          <t>procedure_node_00003</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
@@ -2754,11 +2754,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>procedure_node_00020</t>
+          <t>procedure_node_00009</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -2774,11 +2774,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>procedure_node_00035</t>
+          <t>procedure_node_00023</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93">
@@ -2794,11 +2794,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>procedure_node_00000</t>
+          <t>procedure_node_00035</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94">
@@ -2814,11 +2814,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00006</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -2834,11 +2834,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>procedure_node_00013</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
@@ -2854,11 +2854,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00004</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
@@ -2874,11 +2874,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
@@ -2894,11 +2894,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>procedure_node_00006</t>
+          <t>procedure_node_00039</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2934,11 +2934,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>procedure_node_00023</t>
+          <t>procedure_node_00010</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>procedure_node_00002</t>
+          <t>procedure_node_00017</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2972,7 +2972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3005,12 +3005,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rsrc-0063</t>
+          <t>rsrc-0033</t>
         </is>
       </c>
     </row>
@@ -3022,46 +3022,46 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rsrc-0058</t>
+          <t>rsrc-0044</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>procedure_node_00000</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rsrc-0001</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rsrc-0045</t>
+          <t>rsrc-0051</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>procedure_node_00000</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rsrc-0048</t>
+          <t>rsrc-0020</t>
         </is>
       </c>
     </row>
@@ -3073,29 +3073,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0027</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>procedure_node_00001</t>
+          <t>procedure_node_00002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>rsrc-0025</t>
+          <t>rsrc-0019</t>
         </is>
       </c>
     </row>
@@ -3107,12 +3107,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rsrc-0012</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>rsrc-0030</t>
+          <t>rsrc-0034</t>
         </is>
       </c>
     </row>
@@ -3124,12 +3124,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>rsrc-0058</t>
+          <t>rsrc-0048</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>rsrc-0017</t>
+          <t>rsrc-0026</t>
         </is>
       </c>
     </row>
@@ -3158,36 +3158,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rsrc-0053</t>
+          <t>rsrc-0022</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>procedure_node_00003</t>
+          <t>procedure_node_00004</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>rsrc-0029</t>
+          <t>rsrc-0028</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>procedure_node_00003</t>
+          <t>procedure_node_00004</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>rsrc-0052</t>
+          <t>rsrc-0028</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>rsrc-0042</t>
+          <t>rsrc-0041</t>
         </is>
       </c>
     </row>
@@ -3226,29 +3226,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>rsrc-0040</t>
+          <t>rsrc-0025</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>procedure_node_00004</t>
+          <t>procedure_node_00005</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rsrc-0020</t>
+          <t>rsrc-0022</t>
         </is>
       </c>
     </row>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rsrc-0003</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>rsrc-0024</t>
+          <t>rsrc-0036</t>
         </is>
       </c>
     </row>
@@ -3277,194 +3277,194 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0007</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>rsrc-0055</t>
+          <t>rsrc-0030</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>procedure_node_00005</t>
+          <t>procedure_node_00006</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>rsrc-0047</t>
+          <t>rsrc-0018</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>procedure_node_00005</t>
+          <t>procedure_node_00006</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>rsrc-0032</t>
+          <t>rsrc-0031</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>procedure_node_00006</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>rsrc-0034</t>
+          <t>rsrc-0056</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>procedure_node_00006</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0055</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>procedure_node_00006</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>rsrc-0060</t>
+          <t>rsrc-0041</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>procedure_node_00006</t>
+          <t>procedure_node_00008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>rsrc-0014</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>rsrc-0062</t>
+          <t>rsrc-0019</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>procedure_node_00007</t>
+          <t>procedure_node_00008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0038</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>procedure_node_00007</t>
+          <t>procedure_node_00009</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>rsrc-0001</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>rsrc-0045</t>
+          <t>rsrc-0060</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>procedure_node_00008</t>
+          <t>procedure_node_00009</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>rsrc-0054</t>
+          <t>rsrc-0057</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>procedure_node_00008</t>
+          <t>procedure_node_00009</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>rsrc-0061</t>
+          <t>rsrc-0045</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>procedure_node_00009</t>
+          <t>procedure_node_00010</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>rsrc-0003</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3476,136 +3476,136 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>procedure_node_00009</t>
+          <t>procedure_node_00010</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>rsrc-0035</t>
+          <t>rsrc-0054</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>procedure_node_00009</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>rsrc-0033</t>
+          <t>rsrc-0029</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>procedure_node_00010</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0010</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>rsrc-0020</t>
+          <t>rsrc-0036</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>procedure_node_00010</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>rsrc-0037</t>
+          <t>rsrc-0062</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>procedure_node_00010</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>rsrc-0045</t>
+          <t>rsrc-0064</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>procedure_node_00010</t>
+          <t>procedure_node_00012</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>rsrc-0022</t>
+          <t>rsrc-0043</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00012</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>rsrc-0038</t>
+          <t>rsrc-0032</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00012</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>rsrc-0043</t>
+          <t>rsrc-0045</t>
         </is>
       </c>
     </row>
@@ -3617,63 +3617,63 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>rsrc-0063</t>
+          <t>rsrc-0037</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00013</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>rsrc-0003</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>rsrc-0016</t>
+          <t>rsrc-0063</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00013</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>rsrc-0017</t>
+          <t>rsrc-0059</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00013</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>rsrc-0033</t>
+          <t>rsrc-0041</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3697,17 +3697,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>procedure_node_00013</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>rsrc-0016</t>
+          <t>rsrc-0043</t>
         </is>
       </c>
     </row>
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>rsrc-0048</t>
+          <t>rsrc-0056</t>
         </is>
       </c>
     </row>
@@ -3736,29 +3736,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>rsrc-0012</t>
+          <t>rsrc-0010</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>rsrc-0042</t>
+          <t>rsrc-0032</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>procedure_node_00014</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>rsrc-0047</t>
+          <t>rsrc-0064</t>
         </is>
       </c>
     </row>
@@ -3770,19 +3770,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>rsrc-0021</t>
+          <t>rsrc-0023</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3792,138 +3792,138 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>rsrc-0026</t>
+          <t>rsrc-0016</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>rsrc-0045</t>
+          <t>rsrc-0050</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00017</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>rsrc-0040</t>
+          <t>rsrc-0021</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00017</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>rsrc-0065</t>
+          <t>rsrc-0041</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00018</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>rsrc-0035</t>
+          <t>rsrc-0016</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00018</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>rsrc-0034</t>
+          <t>rsrc-0017</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>procedure_node_00017</t>
+          <t>procedure_node_00018</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>rsrc-0054</t>
+          <t>rsrc-0063</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>procedure_node_00017</t>
+          <t>procedure_node_00018</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>rsrc-0056</t>
+          <t>rsrc-0060</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3935,24 +3935,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>rsrc-0062</t>
+          <t>rsrc-0059</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3962,269 +3962,269 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>rsrc-0028</t>
+          <t>rsrc-0026</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>rsrc-0052</t>
+          <t>rsrc-0020</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>procedure_node_00019</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>rsrc-0016</t>
+          <t>rsrc-0026</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>procedure_node_00019</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>rsrc-0039</t>
+          <t>rsrc-0065</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>procedure_node_00020</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>rsrc-0035</t>
+          <t>rsrc-0023</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>procedure_node_00020</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>rsrc-0003</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>rsrc-0028</t>
+          <t>rsrc-0045</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>procedure_node_00020</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>rsrc-0029</t>
+          <t>rsrc-0046</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>procedure_node_00020</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>rsrc-0029</t>
+          <t>rsrc-0062</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00023</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0007</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>rsrc-0055</t>
+          <t>rsrc-0028</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00023</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>rsrc-0030</t>
+          <t>rsrc-0029</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00024</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>rsrc-0018</t>
+          <t>rsrc-0037</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00024</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>rsrc-0014</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>rsrc-0044</t>
+          <t>rsrc-0041</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>rsrc-0012</t>
+          <t>rsrc-0007</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>rsrc-0024</t>
+          <t>rsrc-0023</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>procedure_node_00023</t>
+          <t>procedure_node_00025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>rsrc-0003</t>
+          <t>rsrc-0007</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>rsrc-0027</t>
+          <t>rsrc-0034</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>procedure_node_00023</t>
+          <t>procedure_node_00025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>rsrc-0056</t>
+          <t>rsrc-0034</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>procedure_node_00023</t>
+          <t>procedure_node_00025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>rsrc-0057</t>
+          <t>rsrc-0040</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>procedure_node_00023</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4234,104 +4234,104 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>rsrc-0030</t>
+          <t>rsrc-0052</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>procedure_node_00024</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>rsrc-0025</t>
+          <t>rsrc-0038</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>procedure_node_00024</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>rsrc-0003</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>rsrc-0058</t>
+          <t>rsrc-0051</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>procedure_node_00024</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>rsrc-0048</t>
+          <t>rsrc-0044</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>procedure_node_00025</t>
+          <t>procedure_node_00027</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>rsrc-0003</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>rsrc-0055</t>
+          <t>rsrc-0044</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>procedure_node_00025</t>
+          <t>procedure_node_00027</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0010</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>rsrc-0038</t>
+          <t>rsrc-0043</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>procedure_node_00025</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4343,126 +4343,126 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0007</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>rsrc-0033</t>
+          <t>rsrc-0043</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>rsrc-0025</t>
+          <t>rsrc-0021</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00029</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>rsrc-0030</t>
+          <t>rsrc-0062</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00029</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>rsrc-0042</t>
+          <t>rsrc-0059</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>rsrc-0044</t>
+          <t>rsrc-0037</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>rsrc-0033</t>
+          <t>rsrc-0047</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>procedure_node_00028</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>rsrc-0003</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>rsrc-0027</t>
+          <t>rsrc-0040</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>procedure_node_00028</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4472,138 +4472,138 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>rsrc-0037</t>
+          <t>rsrc-0055</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>procedure_node_00028</t>
+          <t>procedure_node_00031</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>rsrc-0003</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>rsrc-0047</t>
+          <t>rsrc-0065</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>procedure_node_00028</t>
+          <t>procedure_node_00031</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>rsrc-0045</t>
+          <t>rsrc-0041</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00031</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>rsrc-0054</t>
+          <t>rsrc-0045</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00032</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>rsrc-0012</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>rsrc-0027</t>
+          <t>rsrc-0019</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00032</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>rsrc-0018</t>
+          <t>rsrc-0040</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00032</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>rsrc-0055</t>
+          <t>rsrc-0026</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00032</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>rsrc-0026</t>
+          <t>rsrc-0035</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4615,58 +4615,58 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>procedure_node_00031</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>rsrc-0026</t>
+          <t>rsrc-0020</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>procedure_node_00031</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0010</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>rsrc-0020</t>
+          <t>rsrc-0022</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>procedure_node_00032</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>rsrc-0001</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>rsrc-0054</t>
+          <t>rsrc-0058</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>procedure_node_00032</t>
+          <t>procedure_node_00034</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4676,19 +4676,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>rsrc-0043</t>
+          <t>rsrc-0065</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00034</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4700,17 +4700,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00034</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>rsrc-0061</t>
+          <t>rsrc-0020</t>
         </is>
       </c>
     </row>
@@ -4722,19 +4722,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>rsrc-0030</t>
+          <t>rsrc-0048</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>procedure_node_00034</t>
+          <t>procedure_node_00035</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4744,296 +4744,211 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>rsrc-0019</t>
+          <t>rsrc-0054</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>procedure_node_00034</t>
+          <t>procedure_node_00035</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>rsrc-0037</t>
+          <t>rsrc-0044</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>procedure_node_00034</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>rsrc-0018</t>
+          <t>rsrc-0051</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>procedure_node_00035</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>rsrc-0033</t>
+          <t>rsrc-0041</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>procedure_node_00035</t>
+          <t>procedure_node_00037</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>rsrc-0028</t>
+          <t>rsrc-0061</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>procedure_node_00035</t>
+          <t>procedure_node_00037</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0007</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0042</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>procedure_node_00035</t>
+          <t>procedure_node_00037</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>rsrc-0017</t>
+          <t>rsrc-0019</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00037</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>rsrc-0050</t>
+          <t>rsrc-0063</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00038</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>rsrc-0049</t>
+          <t>rsrc-0056</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00038</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>rsrc-0018</t>
+          <t>rsrc-0048</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00038</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>rsrc-0054</t>
+          <t>rsrc-0036</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00039</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>rsrc-0048</t>
+          <t>rsrc-0042</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00039</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0007</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>rsrc-0029</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>procedure_node_00038</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>rsrc-0009</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>rsrc-0029</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>procedure_node_00038</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>rsrc-0013</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>rsrc-0026</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>procedure_node_00039</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>rsrc-0009</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>rsrc-0034</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>procedure_node_00039</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>rsrc-0015</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>rsrc-0039</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>procedure_node_00039</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>rsrc-0010</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>rsrc-0061</t>
+          <t>rsrc-0046</t>
         </is>
       </c>
     </row>
@@ -5048,7 +4963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5086,17 +5001,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>task-0000</t>
+          <t>task-0001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>task-0015</t>
+          <t>task-0049</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5105,43 +5020,43 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-97</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>task-0000</t>
+          <t>task-0001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>task-0039</t>
+          <t>task-0041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>task-0000</t>
+          <t>task-0001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>task-0084</t>
+          <t>task-0024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5151,22 +5066,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>task-0001</t>
+          <t>task-0002</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>task-0088</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5176,27 +5091,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>task-0001</t>
+          <t>task-0002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>task-0067</t>
+          <t>task-0051</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5205,18 +5120,18 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-78</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>task-0001</t>
+          <t>task-0003</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>task-0003</t>
+          <t>task-0034</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5230,7 +5145,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>77</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="8">
@@ -5241,21 +5156,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>task-0038</t>
+          <t>task-0083</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -5266,12 +5181,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>task-0042</t>
+          <t>task-0018</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -5280,7 +5195,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>-156</v>
       </c>
     </row>
     <row r="10">
@@ -5291,37 +5206,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>task-0012</t>
+          <t>task-0015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-158</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>task-0006</t>
+          <t>task-0005</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>task-0049</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5330,18 +5245,18 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>99</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>task-0006</t>
+          <t>task-0005</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>task-0083</t>
+          <t>task-0055</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5351,27 +5266,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>82</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>task-0007</t>
+          <t>task-0006</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>task-0010</t>
+          <t>task-0045</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5380,57 +5295,57 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>task-0007</t>
+          <t>task-0006</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>task-0019</t>
+          <t>task-0012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>task-0007</t>
+          <t>task-0006</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>task-0023</t>
+          <t>task-0019</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-59</v>
+        <v>-161</v>
       </c>
     </row>
     <row r="16">
@@ -5441,7 +5356,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>task-0023</t>
+          <t>task-0029</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5455,43 +5370,43 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>task-0009</t>
+          <t>task-0008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>task-0095</t>
+          <t>task-0063</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-110</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>task-0009</t>
+          <t>task-0008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>task-0098</t>
+          <t>task-0013</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5501,11 +5416,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -5516,7 +5431,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>task-0059</t>
+          <t>task-0033</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5526,11 +5441,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>55</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="20">
@@ -5541,7 +5456,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>task-0074</t>
+          <t>task-0043</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5551,22 +5466,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>task-0011</t>
+          <t>task-0010</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>task-0047</t>
+          <t>task-0031</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5580,57 +5495,57 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-161</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>task-0012</t>
+          <t>task-0010</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>task-0097</t>
+          <t>task-0076</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-51</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>task-0013</t>
+          <t>task-0011</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>task-0067</t>
+          <t>task-0058</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>96</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="24">
@@ -5641,7 +5556,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>task-0057</t>
+          <t>task-0025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5655,38 +5570,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-135</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>task-0014</t>
+          <t>task-0013</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>task-0032</t>
+          <t>task-0054</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>116</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>task-0014</t>
+          <t>task-0013</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5701,36 +5616,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-137</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>task-0015</t>
+          <t>task-0014</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>task-0055</t>
+          <t>task-0071</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -5741,21 +5656,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>task-0048</t>
+          <t>task-0045</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -5766,12 +5681,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>task-0033</t>
+          <t>task-0040</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5780,43 +5695,43 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-62</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>task-0016</t>
+          <t>task-0015</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>task-0084</t>
+          <t>task-0096</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-169</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>task-0017</t>
+          <t>task-0016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>task-0088</t>
+          <t>task-0029</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5826,22 +5741,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-169</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>task-0017</t>
+          <t>task-0016</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>task-0082</t>
+          <t>task-0045</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5855,7 +5770,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -5866,7 +5781,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>task-0036</t>
+          <t>task-0046</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5876,36 +5791,36 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-171</v>
+        <v>-133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>task-0018</t>
+          <t>task-0017</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>task-0080</t>
+          <t>task-0081</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
@@ -5916,21 +5831,21 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>task-0071</t>
+          <t>task-0032</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-49</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="36">
@@ -5941,7 +5856,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>task-0052</t>
+          <t>task-0046</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5951,52 +5866,52 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>74</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>task-0021</t>
+          <t>task-0020</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>task-0029</t>
+          <t>task-0022</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-98</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>task-0022</t>
+          <t>task-0021</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>task-0056</t>
+          <t>task-0072</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6005,13 +5920,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-159</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>task-0023</t>
+          <t>task-0022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6021,32 +5936,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-169</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>task-0025</t>
+          <t>task-0022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>task-0038</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6055,18 +5970,18 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-130</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>task-0026</t>
+          <t>task-0023</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>task-0061</t>
+          <t>task-0027</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6080,18 +5995,18 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>task-0026</t>
+          <t>task-0023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>task-0042</t>
+          <t>task-0082</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6101,102 +6016,102 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-97</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>task-0026</t>
+          <t>task-0023</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>task-0040</t>
+          <t>task-0045</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>106</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>task-0030</t>
+          <t>task-0024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>task-0040</t>
+          <t>task-0032</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>task-0030</t>
+          <t>task-0024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>task-0069</t>
+          <t>task-0071</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-38</v>
+        <v>-114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>task-0031</t>
+          <t>task-0025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>task-0046</t>
+          <t>task-0053</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6205,18 +6120,18 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-174</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>task-0031</t>
+          <t>task-0025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>task-0034</t>
+          <t>task-0040</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6226,102 +6141,102 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>120</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>task-0031</t>
+          <t>task-0026</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>task-0083</t>
+          <t>task-0077</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-94</v>
+        <v>-129</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>task-0032</t>
+          <t>task-0026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>task-0050</t>
+          <t>task-0074</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>task-0032</t>
+          <t>task-0027</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>task-0046</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>task-0034</t>
+          <t>task-0028</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>task-0095</t>
+          <t>task-0063</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6330,18 +6245,18 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>task-0035</t>
+          <t>task-0028</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>task-0074</t>
+          <t>task-0070</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6355,18 +6270,18 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-72</v>
+        <v>-163</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>task-0036</t>
+          <t>task-0028</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>task-0097</t>
+          <t>task-0099</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6376,22 +6291,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>task-0036</t>
+          <t>task-0029</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>task-0082</t>
+          <t>task-0065</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6405,43 +6320,43 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>41</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>task-0036</t>
+          <t>task-0029</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>task-0047</t>
+          <t>task-0063</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-114</v>
+        <v>-122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>task-0037</t>
+          <t>task-0029</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>task-0063</t>
+          <t>task-0043</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6451,22 +6366,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>task-0037</t>
+          <t>task-0030</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>task-0093</t>
+          <t>task-0056</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6480,23 +6395,23 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>task-0037</t>
+          <t>task-0030</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>task-0039</t>
+          <t>task-0070</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6505,18 +6420,18 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>116</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>task-0038</t>
+          <t>task-0031</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0073</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6526,22 +6441,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>task-0039</t>
+          <t>task-0031</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>task-0099</t>
+          <t>task-0095</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6555,18 +6470,18 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>task-0039</t>
+          <t>task-0031</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>task-0043</t>
+          <t>task-0062</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6576,47 +6491,47 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>74</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>task-0039</t>
+          <t>task-0032</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>task-0047</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-19</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>task-0040</t>
+          <t>task-0032</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0098</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6626,47 +6541,47 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>102</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>task-0041</t>
+          <t>task-0034</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>task-0082</t>
+          <t>task-0043</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>-129</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>task-0041</t>
+          <t>task-0035</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0071</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6680,23 +6595,23 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-55</v>
+        <v>-173</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>task-0041</t>
+          <t>task-0036</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>task-0062</t>
+          <t>task-0057</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6705,18 +6620,18 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-126</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>task-0042</t>
+          <t>task-0037</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>task-0044</t>
+          <t>task-0053</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6726,22 +6641,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>task-0042</t>
+          <t>task-0038</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>task-0054</t>
+          <t>task-0048</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6751,47 +6666,47 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-144</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>task-0042</t>
+          <t>task-0038</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>task-0065</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>74</v>
+        <v>-95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>task-0044</t>
+          <t>task-0039</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0055</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6801,22 +6716,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-79</v>
+        <v>-137</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>task-0044</t>
+          <t>task-0039</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>task-0045</t>
+          <t>task-0084</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6826,27 +6741,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>114</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>task-0045</t>
+          <t>task-0040</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>task-0096</t>
+          <t>task-0098</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6855,18 +6770,18 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>task-0045</t>
+          <t>task-0040</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>task-0077</t>
+          <t>task-0076</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -6876,52 +6791,52 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34</v>
+        <v>-152</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>task-0045</t>
+          <t>task-0040</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0053</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>120</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>task-0046</t>
+          <t>task-0042</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>task-0086</t>
+          <t>task-0087</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6930,18 +6845,18 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>53</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>task-0046</t>
+          <t>task-0043</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>task-0068</t>
+          <t>task-0097</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6951,27 +6866,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>87</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>task-0047</t>
+          <t>task-0045</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>task-0096</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6980,18 +6895,18 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-110</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>task-0048</t>
+          <t>task-0045</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>task-0069</t>
+          <t>task-0051</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7005,23 +6920,23 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>task-0048</t>
+          <t>task-0046</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>task-0093</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -7030,18 +6945,18 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>task-0048</t>
+          <t>task-0046</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7051,22 +6966,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>53</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>task-0049</t>
+          <t>task-0048</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>task-0070</t>
+          <t>task-0051</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -7076,22 +6991,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-171</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>task-0051</t>
+          <t>task-0048</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>task-0077</t>
+          <t>task-0050</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -7101,27 +7016,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-162</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>task-0052</t>
+          <t>task-0049</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>task-0058</t>
+          <t>task-0051</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -7130,48 +7045,48 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>task-0053</t>
+          <t>task-0049</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>task-0089</t>
+          <t>task-0052</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>task-0054</t>
+          <t>task-0052</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>task-0067</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -7180,18 +7095,18 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>task-0054</t>
+          <t>task-0052</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>task-0063</t>
+          <t>task-0080</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -7205,7 +7120,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="87">
@@ -7216,7 +7131,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>task-0075</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -7226,27 +7141,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>task-0055</t>
+          <t>task-0054</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>task-0085</t>
+          <t>task-0073</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -7255,18 +7170,18 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>108</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>task-0055</t>
+          <t>task-0054</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>task-0089</t>
+          <t>task-0069</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -7276,27 +7191,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>50</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>task-0057</t>
+          <t>task-0056</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>task-0095</t>
+          <t>task-0088</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7305,23 +7220,23 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-45</v>
+        <v>-138</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>task-0058</t>
+          <t>task-0057</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>task-0091</t>
+          <t>task-0095</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7330,7 +7245,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92">
@@ -7341,7 +7256,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>task-0066</t>
+          <t>task-0097</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -7351,27 +7266,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-123</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>task-0059</t>
+          <t>task-0060</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>task-0072</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -7380,18 +7295,18 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>78</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>task-0059</t>
+          <t>task-0060</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>task-0062</t>
+          <t>task-0084</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -7401,11 +7316,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -7416,12 +7331,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>task-0066</t>
+          <t>task-0091</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -7430,18 +7345,18 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>task-0060</t>
+          <t>task-0061</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>task-0082</t>
+          <t>task-0099</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -7451,11 +7366,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-161</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="97">
@@ -7466,37 +7381,37 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>task-0084</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>task-0061</t>
+          <t>task-0062</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>task-0081</t>
+          <t>task-0080</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -7505,48 +7420,48 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>60</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>task-0061</t>
+          <t>task-0063</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>task-0068</t>
+          <t>task-0093</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-173</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>task-0062</t>
+          <t>task-0063</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>task-0081</t>
+          <t>task-0089</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -7555,23 +7470,23 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-168</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>task-0062</t>
+          <t>task-0063</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>task-0068</t>
+          <t>task-0087</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -7580,23 +7495,23 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-113</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>task-0063</t>
+          <t>task-0064</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>task-0079</t>
+          <t>task-0077</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -7605,18 +7520,18 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>task-0066</t>
+          <t>task-0064</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>task-0079</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -7626,52 +7541,52 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-151</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>task-0067</t>
+          <t>task-0066</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>task-0088</t>
+          <t>task-0068</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-92</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>task-0067</t>
+          <t>task-0066</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>task-0093</t>
+          <t>task-0080</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -7680,18 +7595,18 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>74</v>
+        <v>-133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>task-0068</t>
+          <t>task-0066</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>task-0088</t>
+          <t>task-0084</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -7705,18 +7620,18 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>57</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>task-0068</t>
+          <t>task-0067</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>task-0096</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -7730,18 +7645,18 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>task-0068</t>
+          <t>task-0069</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>task-0095</t>
+          <t>task-0088</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -7755,18 +7670,18 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>46</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>task-0069</t>
+          <t>task-0070</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>task-0073</t>
+          <t>task-0081</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7780,48 +7695,48 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-13</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>task-0070</t>
+          <t>task-0072</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>task-0086</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>task-0070</t>
+          <t>task-0072</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0073</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -7830,23 +7745,23 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>task-0070</t>
+          <t>task-0072</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>task-0089</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -7855,18 +7770,18 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>task-0072</t>
+          <t>task-0073</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>task-0077</t>
+          <t>task-0080</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7880,7 +7795,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>87</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="114">
@@ -7891,12 +7806,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -7905,7 +7820,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-42</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="115">
@@ -7916,7 +7831,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>task-0085</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7930,32 +7845,32 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>-154</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>task-0073</t>
+          <t>task-0074</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>task-0096</t>
+          <t>task-0076</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117">
@@ -7966,12 +7881,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>task-0091</t>
+          <t>task-0089</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7980,23 +7895,23 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>-170</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>task-0075</t>
+          <t>task-0074</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>task-0082</t>
+          <t>task-0077</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -8005,18 +7920,18 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>task-0076</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>task-0078</t>
+          <t>task-0098</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -8030,48 +7945,48 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>task-0076</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>task-0098</t>
+          <t>task-0091</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>task-0076</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>task-0088</t>
+          <t>task-0085</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8080,23 +7995,23 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>-90</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>task-0077</t>
+          <t>task-0076</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>task-0092</t>
+          <t>task-0082</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -8105,32 +8020,32 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-130</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>task-0077</t>
+          <t>task-0076</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>task-0098</t>
+          <t>task-0087</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-156</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="124">
@@ -8141,12 +8056,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>task-0078</t>
+          <t>task-0092</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -8155,48 +8070,48 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>14</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>task-0078</t>
+          <t>task-0077</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>task-0079</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-21</v>
+        <v>-82</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>task-0080</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0093</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -8205,57 +8120,57 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>69</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>task-0080</t>
+          <t>task-0081</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>task-0082</t>
+          <t>task-0091</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>-58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>task-0080</t>
+          <t>task-0081</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>task-0081</t>
+          <t>task-0097</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-78</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="129">
@@ -8266,32 +8181,32 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>task-0082</t>
+          <t>task-0087</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-161</v>
+        <v>-147</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>task-0082</t>
+          <t>task-0083</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>task-0097</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8305,7 +8220,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>34</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="131">
@@ -8316,7 +8231,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>task-0097</t>
+          <t>task-0089</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8326,22 +8241,22 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>task-0085</t>
+          <t>task-0083</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>task-0093</t>
+          <t>task-0087</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8355,18 +8270,18 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>task-0085</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0093</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8376,22 +8291,22 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>task-0086</t>
+          <t>task-0088</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -8405,18 +8320,18 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-6</v>
+        <v>-133</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>task-0086</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>task-0095</t>
+          <t>task-0092</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8426,27 +8341,27 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>task-0086</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0096</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -8455,23 +8370,23 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-57</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0091</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>task-0092</t>
+          <t>task-0099</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -8480,18 +8395,18 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-125</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>task-0089</t>
+          <t>task-0091</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>task-0098</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -8505,18 +8420,18 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-129</v>
+        <v>-178</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>task-0089</t>
+          <t>task-0092</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0095</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8526,72 +8441,72 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-93</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>task-0089</t>
+          <t>task-0092</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>task-0092</t>
+          <t>task-0098</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-47</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0093</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>task-0099</t>
+          <t>task-0096</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>78</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>task-0096</t>
+          <t>task-0099</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8601,311 +8516,61 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-148</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>task-0091</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>task-0092</t>
+          <t>task-0096</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>61</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>task-0092</t>
+          <t>task-0098</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>task-0093</t>
+          <t>task-0099</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-147</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>task-0092</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>task-0095</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>task-0093</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>task-0098</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>task-0093</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>task-0094</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>task-0094</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>task-0099</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>task-0094</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>task-0096</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>task-0095</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>task-0098</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>-122</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>task-0095</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>task-0097</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>task-0097</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>task-0099</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>task-0097</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>task-0098</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>開始</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>-106</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>task-0098</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>task-0099</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>26</v>
+        <v>-34</v>
       </c>
     </row>
   </sheetData>

--- a/projects/dev/large_dataset.xlsx
+++ b/projects/dev/large_dataset.xlsx
@@ -974,7 +974,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -994,11 +994,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>procedure_node_00010</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1014,11 +1014,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>procedure_node_00014</t>
+          <t>procedure_node_00034</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1034,11 +1034,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00038</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1054,11 +1054,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00035</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1074,11 +1074,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00004</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1094,11 +1094,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>procedure_node_00001</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00024</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1134,11 +1134,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -1154,11 +1154,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1174,11 +1174,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>procedure_node_00017</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1194,11 +1194,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00038</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>procedure_node_00000</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00003</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>procedure_node_00007</t>
+          <t>procedure_node_00018</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -1274,11 +1274,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00039</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1294,11 +1294,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>procedure_node_00031</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1314,11 +1314,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00002</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -1334,11 +1334,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>procedure_node_00002</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -1354,11 +1354,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>procedure_node_00007</t>
+          <t>procedure_node_00037</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>procedure_node_00028</t>
+          <t>procedure_node_00002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -1394,11 +1394,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -1414,11 +1414,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00034</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1434,11 +1434,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1454,11 +1454,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>procedure_node_00019</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1474,11 +1474,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1494,11 +1494,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>procedure_node_00024</t>
+          <t>procedure_node_00025</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1514,11 +1514,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>procedure_node_00019</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00010</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1554,11 +1554,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00032</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1574,11 +1574,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>procedure_node_00023</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00012</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>procedure_node_00008</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -1654,11 +1654,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -1694,11 +1694,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -1714,11 +1714,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>procedure_node_00006</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00027</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>procedure_node_00002</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1774,11 +1774,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -1794,11 +1794,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00006</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>procedure_node_00007</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1834,11 +1834,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00035</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -1854,11 +1854,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00010</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00006</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00000</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1914,11 +1914,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>procedure_node_00000</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1954,11 +1954,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>procedure_node_00005</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1974,11 +1974,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>procedure_node_00024</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -1994,11 +1994,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>procedure_node_00035</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -2014,11 +2014,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -2034,11 +2034,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>procedure_node_00020</t>
+          <t>procedure_node_00035</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -2074,11 +2074,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>procedure_node_00003</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -2094,11 +2094,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -2114,11 +2114,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00017</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -2134,11 +2134,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00018</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00000</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -2174,11 +2174,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>procedure_node_00001</t>
+          <t>procedure_node_00004</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>procedure_node_00032</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -2214,11 +2214,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>procedure_node_00000</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -2234,11 +2234,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>procedure_node_00007</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
@@ -2254,11 +2254,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -2274,11 +2274,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>procedure_node_00028</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
@@ -2294,11 +2294,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00002</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
@@ -2314,11 +2314,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00032</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
@@ -2334,11 +2334,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>procedure_node_00017</t>
+          <t>procedure_node_00034</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2374,11 +2374,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>procedure_node_00019</t>
+          <t>procedure_node_00004</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
@@ -2394,11 +2394,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>procedure_node_00007</t>
+          <t>procedure_node_00029</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
@@ -2414,11 +2414,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>procedure_node_00009</t>
+          <t>procedure_node_00024</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
@@ -2434,11 +2434,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>procedure_node_00007</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76">
@@ -2454,11 +2454,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>procedure_node_00013</t>
+          <t>procedure_node_00032</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
@@ -2474,11 +2474,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>procedure_node_00001</t>
+          <t>procedure_node_00005</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -2494,11 +2494,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>procedure_node_00009</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
@@ -2514,11 +2514,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00029</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -2534,11 +2534,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
@@ -2554,11 +2554,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82">
@@ -2574,11 +2574,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>procedure_node_00019</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -2594,11 +2594,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>procedure_node_00039</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
@@ -2614,11 +2614,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
@@ -2634,11 +2634,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -2654,11 +2654,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00038</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
@@ -2674,11 +2674,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00005</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -2734,11 +2734,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>procedure_node_00003</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -2754,11 +2754,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>procedure_node_00009</t>
+          <t>procedure_node_00005</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -2774,11 +2774,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>procedure_node_00023</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -2794,11 +2794,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>procedure_node_00035</t>
+          <t>procedure_node_00005</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94">
@@ -2814,11 +2814,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>procedure_node_00006</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2854,11 +2854,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>procedure_node_00004</t>
+          <t>procedure_node_00008</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
@@ -2874,11 +2874,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00035</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
@@ -2894,11 +2894,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00037</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
@@ -2914,11 +2914,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>procedure_node_00039</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100">
@@ -2934,11 +2934,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>procedure_node_00010</t>
+          <t>procedure_node_00025</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101">
@@ -2954,11 +2954,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>procedure_node_00017</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +2972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3005,12 +3005,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rsrc-0033</t>
+          <t>rsrc-0060</t>
         </is>
       </c>
     </row>
@@ -3022,12 +3022,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rsrc-0044</t>
+          <t>rsrc-0062</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rsrc-0051</t>
+          <t>rsrc-0031</t>
         </is>
       </c>
     </row>
@@ -3056,12 +3056,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rsrc-0020</t>
+          <t>rsrc-0065</t>
         </is>
       </c>
     </row>
@@ -3073,29 +3073,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rsrc-0027</t>
+          <t>rsrc-0057</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>procedure_node_00002</t>
+          <t>procedure_node_00001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rsrc-0012</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>rsrc-0019</t>
+          <t>rsrc-0053</t>
         </is>
       </c>
     </row>
@@ -3107,12 +3107,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>rsrc-0034</t>
+          <t>rsrc-0041</t>
         </is>
       </c>
     </row>
@@ -3124,12 +3124,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rsrc-0001</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>rsrc-0048</t>
+          <t>rsrc-0056</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>rsrc-0026</t>
+          <t>rsrc-0038</t>
         </is>
       </c>
     </row>
@@ -3158,29 +3158,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rsrc-0022</t>
+          <t>rsrc-0049</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>procedure_node_00004</t>
+          <t>procedure_node_00003</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>rsrc-0028</t>
+          <t>rsrc-0018</t>
         </is>
       </c>
     </row>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>rsrc-0028</t>
+          <t>rsrc-0062</t>
         </is>
       </c>
     </row>
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0059</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>rsrc-0025</t>
+          <t>rsrc-0057</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3243,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rsrc-0022</t>
+          <t>rsrc-0063</t>
         </is>
       </c>
     </row>
@@ -3260,29 +3260,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>rsrc-0036</t>
+          <t>rsrc-0038</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>procedure_node_00005</t>
+          <t>procedure_node_00006</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>rsrc-0030</t>
+          <t>rsrc-0058</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3294,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rsrc-0012</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>rsrc-0018</t>
+          <t>rsrc-0055</t>
         </is>
       </c>
     </row>
@@ -3311,29 +3311,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>rsrc-0031</t>
+          <t>rsrc-0057</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>procedure_node_00007</t>
+          <t>procedure_node_00006</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>rsrc-0056</t>
+          <t>rsrc-0024</t>
         </is>
       </c>
     </row>
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0007</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>rsrc-0055</t>
+          <t>rsrc-0035</t>
         </is>
       </c>
     </row>
@@ -3362,29 +3362,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0023</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>procedure_node_00008</t>
+          <t>procedure_node_00007</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>rsrc-0019</t>
+          <t>rsrc-0051</t>
         </is>
       </c>
     </row>
@@ -3396,36 +3396,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>rsrc-0038</t>
+          <t>rsrc-0055</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>procedure_node_00009</t>
+          <t>procedure_node_00008</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>rsrc-0060</t>
+          <t>rsrc-0025</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>procedure_node_00009</t>
+          <t>procedure_node_00008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>rsrc-0057</t>
+          <t>rsrc-0040</t>
         </is>
       </c>
     </row>
@@ -3447,19 +3447,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>rsrc-0045</t>
+          <t>rsrc-0052</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>procedure_node_00010</t>
+          <t>procedure_node_00009</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3469,31 +3469,31 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>rsrc-0022</t>
+          <t>rsrc-0052</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>procedure_node_00010</t>
+          <t>procedure_node_00009</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>rsrc-0054</t>
+          <t>rsrc-0053</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00010</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3503,82 +3503,82 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>rsrc-0029</t>
+          <t>rsrc-0037</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00010</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>rsrc-0036</t>
+          <t>rsrc-0032</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00010</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>rsrc-0062</t>
+          <t>rsrc-0063</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>procedure_node_00011</t>
+          <t>procedure_node_00010</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>rsrc-0064</t>
+          <t>rsrc-0054</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>rsrc-0043</t>
+          <t>rsrc-0016</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3588,92 +3588,92 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>rsrc-0032</t>
+          <t>rsrc-0026</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>rsrc-0045</t>
+          <t>rsrc-0041</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>procedure_node_00012</t>
+          <t>procedure_node_00011</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>rsrc-0037</t>
+          <t>rsrc-0053</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>procedure_node_00013</t>
+          <t>procedure_node_00012</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>rsrc-0063</t>
+          <t>rsrc-0048</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>procedure_node_00013</t>
+          <t>procedure_node_00012</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rsrc-0014</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>rsrc-0059</t>
+          <t>rsrc-0051</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>procedure_node_00013</t>
+          <t>procedure_node_00012</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0053</t>
         </is>
       </c>
     </row>
@@ -3685,87 +3685,87 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>rsrc-0001</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>rsrc-0029</t>
+          <t>rsrc-0050</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>procedure_node_00014</t>
+          <t>procedure_node_00013</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>rsrc-0043</t>
+          <t>rsrc-0060</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>procedure_node_00014</t>
+          <t>procedure_node_00013</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>rsrc-0012</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>rsrc-0056</t>
+          <t>rsrc-0030</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>procedure_node_00014</t>
+          <t>procedure_node_00013</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>rsrc-0032</t>
+          <t>rsrc-0040</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>rsrc-0064</t>
+          <t>rsrc-0051</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>procedure_node_00015</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3775,779 +3775,779 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>rsrc-0023</t>
+          <t>rsrc-0059</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00014</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0010</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>rsrc-0016</t>
+          <t>rsrc-0037</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>procedure_node_00016</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>rsrc-0050</t>
+          <t>rsrc-0046</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>procedure_node_00017</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>rsrc-0021</t>
+          <t>rsrc-0054</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>procedure_node_00017</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0051</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00015</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>rsrc-0016</t>
+          <t>rsrc-0061</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>rsrc-0001</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>rsrc-0017</t>
+          <t>rsrc-0065</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>rsrc-0063</t>
+          <t>rsrc-0053</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>procedure_node_00018</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>rsrc-0060</t>
+          <t>rsrc-0042</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>procedure_node_00019</t>
+          <t>procedure_node_00016</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>rsrc-0024</t>
+          <t>rsrc-0023</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>procedure_node_00019</t>
+          <t>procedure_node_00017</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>rsrc-0059</t>
+          <t>rsrc-0021</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>procedure_node_00020</t>
+          <t>procedure_node_00017</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>rsrc-0026</t>
+          <t>rsrc-0048</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>procedure_node_00020</t>
+          <t>procedure_node_00017</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>rsrc-0020</t>
+          <t>rsrc-0060</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00018</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>rsrc-0026</t>
+          <t>rsrc-0030</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>procedure_node_00021</t>
+          <t>procedure_node_00018</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>rsrc-0065</t>
+          <t>rsrc-0044</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00018</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>rsrc-0012</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>rsrc-0023</t>
+          <t>rsrc-0046</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>rsrc-0045</t>
+          <t>rsrc-0040</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>rsrc-0046</t>
+          <t>rsrc-0047</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>procedure_node_00022</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>rsrc-0062</t>
+          <t>rsrc-0022</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>procedure_node_00023</t>
+          <t>procedure_node_00019</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>rsrc-0028</t>
+          <t>rsrc-0060</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>procedure_node_00023</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>rsrc-0001</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>rsrc-0029</t>
+          <t>rsrc-0025</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>procedure_node_00024</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>rsrc-0037</t>
+          <t>rsrc-0045</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>procedure_node_00024</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0059</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>procedure_node_00025</t>
+          <t>procedure_node_00020</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>rsrc-0023</t>
+          <t>rsrc-0022</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>procedure_node_00025</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>rsrc-0034</t>
+          <t>rsrc-0064</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>procedure_node_00025</t>
+          <t>procedure_node_00021</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>rsrc-0034</t>
+          <t>rsrc-0043</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>procedure_node_00025</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>rsrc-0040</t>
+          <t>rsrc-0034</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>rsrc-0014</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>rsrc-0052</t>
+          <t>rsrc-0040</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>rsrc-0004</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>rsrc-0038</t>
+          <t>rsrc-0035</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00022</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>rsrc-0051</t>
+          <t>rsrc-0035</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>procedure_node_00026</t>
+          <t>procedure_node_00023</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>rsrc-0014</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>rsrc-0044</t>
+          <t>rsrc-0043</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00023</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>rsrc-0044</t>
+          <t>rsrc-0043</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>procedure_node_00027</t>
+          <t>procedure_node_00023</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>rsrc-0043</t>
+          <t>rsrc-0016</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>procedure_node_00028</t>
+          <t>procedure_node_00023</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>rsrc-0061</t>
+          <t>rsrc-0049</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>procedure_node_00028</t>
+          <t>procedure_node_00024</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>rsrc-0043</t>
+          <t>rsrc-0021</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>procedure_node_00028</t>
+          <t>procedure_node_00024</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0006</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>rsrc-0021</t>
+          <t>rsrc-0039</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>rsrc-0062</t>
+          <t>rsrc-0040</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>procedure_node_00029</t>
+          <t>procedure_node_00025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>rsrc-0059</t>
+          <t>rsrc-0048</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>rsrc-0012</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>rsrc-0037</t>
+          <t>rsrc-0049</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00026</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>rsrc-0047</t>
+          <t>rsrc-0056</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00027</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>rsrc-0040</t>
+          <t>rsrc-0035</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>procedure_node_00030</t>
+          <t>procedure_node_00027</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>rsrc-0001</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>rsrc-0055</t>
+          <t>rsrc-0064</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>procedure_node_00031</t>
+          <t>procedure_node_00027</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>rsrc-0006</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>rsrc-0065</t>
+          <t>rsrc-0036</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>procedure_node_00031</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0005</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0056</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>procedure_node_00031</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0010</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>rsrc-0045</t>
+          <t>rsrc-0057</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>procedure_node_00032</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>rsrc-0014</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>rsrc-0019</t>
+          <t>rsrc-0039</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>procedure_node_00032</t>
+          <t>procedure_node_00028</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4557,48 +4557,48 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>rsrc-0040</t>
+          <t>rsrc-0059</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>procedure_node_00032</t>
+          <t>procedure_node_00029</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0008</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>rsrc-0026</t>
+          <t>rsrc-0056</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>procedure_node_00032</t>
+          <t>procedure_node_00029</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>rsrc-0035</t>
+          <t>rsrc-0018</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00029</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4608,99 +4608,99 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>rsrc-0032</t>
+          <t>rsrc-0019</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>rsrc-0020</t>
+          <t>rsrc-0038</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rsrc-0010</t>
+          <t>rsrc-0013</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>rsrc-0022</t>
+          <t>rsrc-0030</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>procedure_node_00033</t>
+          <t>procedure_node_00030</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>rsrc-0005</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>rsrc-0058</t>
+          <t>rsrc-0059</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>procedure_node_00034</t>
+          <t>procedure_node_00031</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>rsrc-0065</t>
+          <t>rsrc-0050</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>procedure_node_00034</t>
+          <t>procedure_node_00031</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0001</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>rsrc-0017</t>
+          <t>rsrc-0040</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>procedure_node_00034</t>
+          <t>procedure_node_00032</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4710,14 +4710,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>rsrc-0020</t>
+          <t>rsrc-0060</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>procedure_node_00034</t>
+          <t>procedure_node_00032</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4727,228 +4727,347 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>rsrc-0048</t>
+          <t>rsrc-0039</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>procedure_node_00035</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0007</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>rsrc-0054</t>
+          <t>rsrc-0020</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>procedure_node_00035</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>rsrc-0014</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>rsrc-0044</t>
+          <t>rsrc-0063</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>rsrc-0014</t>
+          <t>rsrc-0015</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>rsrc-0051</t>
+          <t>rsrc-0039</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>procedure_node_00036</t>
+          <t>procedure_node_00033</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>rsrc-0015</t>
+          <t>rsrc-0010</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>rsrc-0041</t>
+          <t>rsrc-0027</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00034</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>rsrc-0013</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>rsrc-0061</t>
+          <t>rsrc-0044</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00034</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>rsrc-0007</t>
+          <t>rsrc-0011</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>rsrc-0042</t>
+          <t>rsrc-0026</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00035</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>rsrc-0001</t>
+          <t>rsrc-0003</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>rsrc-0019</t>
+          <t>rsrc-0032</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>procedure_node_00037</t>
+          <t>procedure_node_00035</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>rsrc-0009</t>
+          <t>rsrc-0004</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>rsrc-0063</t>
+          <t>rsrc-0037</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>rsrc-0002</t>
+          <t>rsrc-0014</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>rsrc-0056</t>
+          <t>rsrc-0062</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>rsrc-0011</t>
+          <t>rsrc-0012</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>rsrc-0048</t>
+          <t>rsrc-0037</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>procedure_node_00038</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>rsrc-0008</t>
+          <t>rsrc-0009</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>rsrc-0036</t>
+          <t>rsrc-0063</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>procedure_node_00039</t>
+          <t>procedure_node_00036</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>rsrc-0003</t>
+          <t>rsrc-0002</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>rsrc-0042</t>
+          <t>rsrc-0051</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>procedure_node_00037</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>rsrc-0001</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>rsrc-0036</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>procedure_node_00037</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>rsrc-0001</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>rsrc-0065</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>procedure_node_00037</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>rsrc-0009</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>rsrc-0016</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>procedure_node_00037</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>rsrc-0006</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>rsrc-0051</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>procedure_node_00038</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>rsrc-0006</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>rsrc-0064</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>procedure_node_00038</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>rsrc-0002</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>rsrc-0052</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>procedure_node_00039</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>rsrc-0002</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>rsrc-0017</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>procedure_node_00039</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>rsrc-0007</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>rsrc-0046</t>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>rsrc-0019</t>
         </is>
       </c>
     </row>
@@ -4963,7 +5082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5001,17 +5120,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>task-0001</t>
+          <t>task-0000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>task-0049</t>
+          <t>task-0091</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5020,18 +5139,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-79</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>task-0001</t>
+          <t>task-0002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>task-0041</t>
+          <t>task-0042</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5045,43 +5164,43 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>task-0001</t>
+          <t>task-0003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>task-0024</t>
+          <t>task-0054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>-129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>task-0002</t>
+          <t>task-0003</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>task-0078</t>
+          <t>task-0055</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5091,52 +5210,52 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-179</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>task-0002</t>
+          <t>task-0004</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>task-0051</t>
+          <t>task-0018</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>task-0003</t>
+          <t>task-0005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>task-0034</t>
+          <t>task-0046</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5145,68 +5264,68 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>task-0004</t>
+          <t>task-0005</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>task-0083</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>90</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>task-0004</t>
+          <t>task-0005</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>task-0018</t>
+          <t>task-0048</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-156</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>task-0005</t>
+          <t>task-0006</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>task-0015</t>
+          <t>task-0047</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5220,18 +5339,18 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>task-0005</t>
+          <t>task-0006</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0076</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5245,23 +5364,23 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>task-0005</t>
+          <t>task-0007</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>task-0055</t>
+          <t>task-0088</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5270,18 +5389,18 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-98</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>task-0006</t>
+          <t>task-0007</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>task-0045</t>
+          <t>task-0067</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5295,18 +5414,18 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>119</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>task-0006</t>
+          <t>task-0008</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>task-0012</t>
+          <t>task-0080</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5320,18 +5439,18 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>task-0006</t>
+          <t>task-0008</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>task-0019</t>
+          <t>task-0022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5341,27 +5460,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-161</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>task-0008</t>
+          <t>task-0010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>task-0029</t>
+          <t>task-0015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5370,68 +5489,68 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>task-0008</t>
+          <t>task-0010</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>task-0063</t>
+          <t>task-0037</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>task-0008</t>
+          <t>task-0010</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>task-0013</t>
+          <t>task-0077</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>task-0009</t>
+          <t>task-0012</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>task-0033</t>
+          <t>task-0058</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5445,43 +5564,43 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>task-0010</t>
+          <t>task-0013</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>task-0043</t>
+          <t>task-0054</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>task-0010</t>
+          <t>task-0013</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>task-0031</t>
+          <t>task-0051</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5495,18 +5614,18 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>108</v>
+        <v>-164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>task-0010</t>
+          <t>task-0014</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>task-0076</t>
+          <t>task-0047</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5516,47 +5635,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>task-0011</t>
+          <t>task-0014</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>task-0058</t>
+          <t>task-0039</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>task-0013</t>
+          <t>task-0015</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>task-0025</t>
+          <t>task-0066</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5570,18 +5689,18 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>task-0013</t>
+          <t>task-0015</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>task-0054</t>
+          <t>task-0026</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5595,23 +5714,23 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>task-0013</t>
+          <t>task-0015</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0016</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5620,23 +5739,23 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-169</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>task-0014</t>
+          <t>task-0016</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>task-0071</t>
+          <t>task-0050</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5645,18 +5764,18 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>task-0015</t>
+          <t>task-0018</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>task-0045</t>
+          <t>task-0026</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5666,22 +5785,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>task-0015</t>
+          <t>task-0018</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>task-0040</t>
+          <t>task-0058</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5695,23 +5814,23 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-25</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>task-0015</t>
+          <t>task-0018</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>task-0096</t>
+          <t>task-0037</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5720,48 +5839,48 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>task-0016</t>
+          <t>task-0019</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>task-0029</t>
+          <t>task-0046</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>task-0016</t>
+          <t>task-0020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>task-0045</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5770,43 +5889,43 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>71</v>
+        <v>-134</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>task-0017</t>
+          <t>task-0021</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>task-0046</t>
+          <t>task-0052</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-133</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>task-0017</t>
+          <t>task-0022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>task-0081</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5820,43 +5939,43 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>49</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>task-0019</t>
+          <t>task-0022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>task-0032</t>
+          <t>task-0073</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-160</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>task-0020</t>
+          <t>task-0024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>task-0046</t>
+          <t>task-0041</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5870,28 +5989,28 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-113</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>task-0020</t>
+          <t>task-0025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>task-0022</t>
+          <t>task-0063</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -5901,12 +6020,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>task-0021</t>
+          <t>task-0027</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>task-0072</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5916,27 +6035,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>task-0022</t>
+          <t>task-0027</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>task-0093</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5945,18 +6064,18 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>74</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>task-0022</t>
+          <t>task-0028</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0043</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5966,27 +6085,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-6</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>task-0023</t>
+          <t>task-0030</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>task-0027</t>
+          <t>task-0048</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5995,73 +6114,73 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-124</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>task-0023</t>
+          <t>task-0031</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>task-0082</t>
+          <t>task-0067</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>task-0023</t>
+          <t>task-0032</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>task-0045</t>
+          <t>task-0083</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-76</v>
+        <v>-178</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>task-0024</t>
+          <t>task-0032</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>task-0032</t>
+          <t>task-0062</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6070,43 +6189,43 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>task-0024</t>
+          <t>task-0033</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>task-0071</t>
+          <t>task-0051</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-114</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>task-0025</t>
+          <t>task-0033</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>task-0053</t>
+          <t>task-0044</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6116,47 +6235,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>98</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>task-0025</t>
+          <t>task-0033</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>task-0040</t>
+          <t>task-0062</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-107</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>task-0026</t>
+          <t>task-0034</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>task-0077</t>
+          <t>task-0051</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6170,18 +6289,18 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>task-0026</t>
+          <t>task-0034</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>task-0074</t>
+          <t>task-0039</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6195,43 +6314,43 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>task-0027</t>
+          <t>task-0035</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0066</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-102</v>
+        <v>-159</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>task-0028</t>
+          <t>task-0037</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>task-0063</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6241,22 +6360,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>task-0028</t>
+          <t>task-0037</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>task-0070</t>
+          <t>task-0097</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6266,47 +6385,47 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-163</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>task-0028</t>
+          <t>task-0038</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>task-0099</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>task-0029</t>
+          <t>task-0038</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>task-0065</t>
+          <t>task-0056</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6316,52 +6435,52 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-145</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>task-0029</t>
+          <t>task-0039</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>task-0063</t>
+          <t>task-0082</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-122</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>task-0029</t>
+          <t>task-0039</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>task-0043</t>
+          <t>task-0096</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -6370,48 +6489,48 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-15</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>task-0030</t>
+          <t>task-0039</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>task-0056</t>
+          <t>task-0083</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>61</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>task-0030</t>
+          <t>task-0040</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>task-0070</t>
+          <t>task-0079</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6420,23 +6539,23 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>14</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>task-0031</t>
+          <t>task-0040</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>task-0073</t>
+          <t>task-0057</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6445,13 +6564,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>119</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>task-0031</t>
+          <t>task-0041</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6466,22 +6585,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>102</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>task-0031</t>
+          <t>task-0041</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>task-0062</t>
+          <t>task-0076</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6491,72 +6610,72 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>task-0032</t>
+          <t>task-0043</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0045</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-6</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>task-0032</t>
+          <t>task-0044</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>task-0098</t>
+          <t>task-0095</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>task-0034</t>
+          <t>task-0044</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>task-0043</t>
+          <t>task-0057</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6570,68 +6689,68 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>-129</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>task-0035</t>
+          <t>task-0044</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>task-0071</t>
+          <t>task-0083</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-173</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>task-0036</t>
+          <t>task-0045</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>task-0057</t>
+          <t>task-0073</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-180</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>task-0037</t>
+          <t>task-0045</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>task-0053</t>
+          <t>task-0046</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6645,18 +6764,18 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>41</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>task-0038</t>
+          <t>task-0045</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>task-0048</t>
+          <t>task-0049</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6670,23 +6789,23 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>task-0038</t>
+          <t>task-0046</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>task-0086</t>
+          <t>task-0084</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -6695,43 +6814,43 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>task-0039</t>
+          <t>task-0046</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>task-0055</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>task-0039</t>
+          <t>task-0047</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>task-0084</t>
+          <t>task-0091</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6745,23 +6864,23 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>task-0040</t>
+          <t>task-0048</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>task-0098</t>
+          <t>task-0068</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6770,73 +6889,73 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>task-0040</t>
+          <t>task-0048</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>task-0076</t>
+          <t>task-0077</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-152</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>task-0040</t>
+          <t>task-0048</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>task-0053</t>
+          <t>task-0054</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-125</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>task-0042</t>
+          <t>task-0049</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0068</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6845,18 +6964,18 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-66</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>task-0043</t>
+          <t>task-0050</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>task-0097</t>
+          <t>task-0062</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6870,18 +6989,18 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-111</v>
+        <v>-124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>task-0045</t>
+          <t>task-0050</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>task-0078</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6891,27 +7010,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>task-0045</t>
+          <t>task-0051</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>task-0051</t>
+          <t>task-0054</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6920,43 +7039,43 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>19</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>task-0046</t>
+          <t>task-0051</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>task-0075</t>
+          <t>task-0077</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>82</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>task-0046</t>
+          <t>task-0051</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>task-0086</t>
+          <t>task-0082</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6966,27 +7085,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-88</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>task-0048</t>
+          <t>task-0052</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>task-0051</t>
+          <t>task-0059</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6995,23 +7114,23 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-119</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>task-0048</t>
+          <t>task-0052</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>task-0050</t>
+          <t>task-0057</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -7020,18 +7139,18 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>task-0049</t>
+          <t>task-0053</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>task-0051</t>
+          <t>task-0089</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -7041,22 +7160,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>task-0049</t>
+          <t>task-0053</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>task-0052</t>
+          <t>task-0073</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -7066,61 +7185,61 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>87</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>task-0052</t>
+          <t>task-0053</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0060</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>89</v>
+        <v>-141</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>task-0052</t>
+          <t>task-0054</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>task-0080</t>
+          <t>task-0060</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87">
@@ -7131,7 +7250,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>task-0078</t>
+          <t>task-0059</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -7141,22 +7260,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>task-0054</t>
+          <t>task-0055</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>task-0073</t>
+          <t>task-0065</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -7166,22 +7285,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>55</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>task-0054</t>
+          <t>task-0055</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>task-0069</t>
+          <t>task-0083</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -7191,22 +7310,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-47</v>
+        <v>-137</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>task-0056</t>
+          <t>task-0055</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>task-0088</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -7216,72 +7335,72 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-138</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>task-0057</t>
+          <t>task-0056</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>task-0095</t>
+          <t>task-0097</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>112</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>task-0058</t>
+          <t>task-0056</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>task-0097</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-16</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>task-0060</t>
+          <t>task-0057</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0064</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -7295,23 +7414,23 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-64</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>task-0060</t>
+          <t>task-0057</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>task-0084</t>
+          <t>task-0088</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -7320,23 +7439,23 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>11</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>task-0060</t>
+          <t>task-0057</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>task-0091</t>
+          <t>task-0071</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -7345,43 +7464,43 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>-162</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>task-0061</t>
+          <t>task-0059</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>task-0099</t>
+          <t>task-0087</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-42</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>task-0061</t>
+          <t>task-0059</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>task-0078</t>
+          <t>task-0060</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -7391,22 +7510,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>48</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>task-0062</t>
+          <t>task-0061</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>task-0080</t>
+          <t>task-0098</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -7416,52 +7535,52 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-136</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>task-0063</t>
+          <t>task-0061</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>task-0093</t>
+          <t>task-0068</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>task-0063</t>
+          <t>task-0062</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>task-0089</t>
+          <t>task-0079</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -7470,23 +7589,23 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>task-0063</t>
+          <t>task-0062</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -7495,23 +7614,23 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-134</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>task-0064</t>
+          <t>task-0065</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>task-0077</t>
+          <t>task-0099</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -7520,18 +7639,18 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>56</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>task-0064</t>
+          <t>task-0065</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>task-0078</t>
+          <t>task-0096</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -7545,18 +7664,18 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>95</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>task-0066</t>
+          <t>task-0065</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>task-0068</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -7570,23 +7689,23 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>task-0066</t>
+          <t>task-0067</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>task-0080</t>
+          <t>task-0096</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -7595,13 +7714,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>task-0066</t>
+          <t>task-0067</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7611,16 +7730,16 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107">
@@ -7631,7 +7750,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>task-0086</t>
+          <t>task-0093</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -7641,22 +7760,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>100</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>task-0069</t>
+          <t>task-0068</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>task-0088</t>
+          <t>task-0076</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -7666,47 +7785,47 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>task-0070</t>
+          <t>task-0068</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>task-0081</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-26</v>
+        <v>-158</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>task-0072</t>
+          <t>task-0068</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>task-0078</t>
+          <t>task-0095</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7720,18 +7839,18 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>76</v>
+        <v>-122</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>task-0072</t>
+          <t>task-0069</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>task-0073</t>
+          <t>task-0084</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7745,18 +7864,18 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>96</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>task-0072</t>
+          <t>task-0069</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0074</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7770,18 +7889,18 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>95</v>
+        <v>-79</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>task-0073</t>
+          <t>task-0069</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>task-0080</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7795,18 +7914,18 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>task-0073</t>
+          <t>task-0070</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0091</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7816,27 +7935,27 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-174</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>task-0073</t>
+          <t>task-0070</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>task-0086</t>
+          <t>task-0076</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -7845,18 +7964,18 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>-77</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>task-0074</t>
+          <t>task-0071</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>task-0076</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7870,18 +7989,18 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>63</v>
+        <v>-158</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>task-0074</t>
+          <t>task-0071</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>task-0089</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7895,20 +8014,20 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>-111</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>task-0073</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>task-0074</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>task-0077</t>
-        </is>
-      </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>開始</t>
@@ -7920,23 +8039,23 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>-101</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>task-0075</t>
+          <t>task-0073</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>task-0098</t>
+          <t>task-0083</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -7945,48 +8064,48 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>79</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>task-0075</t>
+          <t>task-0073</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>task-0091</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>task-0075</t>
+          <t>task-0074</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>task-0085</t>
+          <t>task-0092</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -7995,68 +8114,68 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>-17</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>task-0076</t>
+          <t>task-0074</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>task-0082</t>
+          <t>task-0095</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-60</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>task-0076</t>
+          <t>task-0074</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0094</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>task-0077</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>task-0092</t>
+          <t>task-0096</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -8070,23 +8189,23 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-103</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>task-0077</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0083</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -8095,18 +8214,18 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>task-0078</t>
+          <t>task-0075</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>task-0093</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -8116,47 +8235,47 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-116</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>task-0081</t>
+          <t>task-0077</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>task-0091</t>
+          <t>task-0095</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>20</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>task-0081</t>
+          <t>task-0077</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>task-0097</t>
+          <t>task-0079</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -8170,38 +8289,38 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>task-0081</t>
+          <t>task-0077</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0085</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-147</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>task-0083</t>
+          <t>task-0078</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8216,22 +8335,22 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-154</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>task-0083</t>
+          <t>task-0079</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>task-0089</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8245,23 +8364,23 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>39</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>task-0083</t>
+          <t>task-0079</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>task-0087</t>
+          <t>task-0093</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -8270,23 +8389,23 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>59</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>task-0086</t>
+          <t>task-0079</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>task-0093</t>
+          <t>task-0098</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -8295,23 +8414,23 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>92</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>task-0088</t>
+          <t>task-0083</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0098</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -8320,18 +8439,18 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0084</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>task-0092</t>
+          <t>task-0088</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8341,22 +8460,22 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>task-0090</t>
+          <t>task-0084</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>task-0096</t>
+          <t>task-0092</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -8370,18 +8489,18 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-84</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>task-0091</t>
+          <t>task-0084</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>task-0099</t>
+          <t>task-0095</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8391,22 +8510,22 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>task-0091</t>
+          <t>task-0085</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0093</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -8416,24 +8535,24 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-178</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>task-0086</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>task-0092</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>task-0095</t>
-        </is>
-      </c>
       <c r="C139" t="inlineStr">
         <is>
           <t>開始</t>
@@ -8445,48 +8564,48 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-77</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>task-0092</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>task-0098</t>
+          <t>task-0096</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-146</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>task-0093</t>
+          <t>task-0086</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>task-0096</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -8495,18 +8614,18 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-112</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0088</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>task-0099</t>
+          <t>task-0092</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8516,27 +8635,27 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>task-0094</t>
+          <t>task-0089</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>task-0096</t>
+          <t>task-0090</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>開始</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -8545,32 +8664,432 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-109</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
+          <t>task-0089</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>task-0091</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>task-0089</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>task-0094</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>task-0090</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>task-0099</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>task-0090</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
           <t>task-0098</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>task-0090</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>task-0093</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>task-0093</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>task-0094</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>task-0093</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>task-0096</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>task-0093</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>task-0099</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>-34</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>task-0094</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>task-0097</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>task-0094</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>task-0095</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>task-0095</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>task-0097</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>task-0096</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>task-0099</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>task-0096</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>task-0098</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>task-0096</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>task-0097</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>-157</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>task-0097</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>task-0099</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>task-0097</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>task-0098</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>-163</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>task-0098</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>task-0099</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>開始</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>-59</v>
       </c>
     </row>
   </sheetData>
